--- a/data/stat probs/keita bates diop stat probs - condition.xlsx
+++ b/data/stat probs/keita bates diop stat probs - condition.xlsx
@@ -19,20 +19,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phx 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phx 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="min 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phx 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phx 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sac 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gsw 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -591,28 +591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1489,28 +1489,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2549,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3063,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3577,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3595,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4077,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5183,28 +5183,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5762,7 +5762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5825,28 +5825,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -5857,10 +5857,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
@@ -5889,16 +5889,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>33</v>
@@ -5907,10 +5907,10 @@
         <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -5921,22 +5921,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5953,22 +5953,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5985,22 +5985,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
         <v>67</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>33</v>
       </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6017,10 +6017,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
@@ -6049,16 +6049,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6081,10 +6081,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6113,10 +6113,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6145,10 +6145,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6177,10 +6177,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6209,10 +6209,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6241,10 +6241,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6273,10 +6273,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6305,10 +6305,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -6337,10 +6337,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
+        <v>67</v>
+      </c>
+      <c r="D18" t="n">
         <v>33</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -6369,10 +6369,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>67</v>
+      </c>
+      <c r="D19" t="n">
         <v>33</v>
-      </c>
-      <c r="D19" t="n">
-        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -6422,6 +6422,134 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="n">
+        <v>67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="n">
+        <v>67</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6436,7 +6564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6499,28 +6627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -6531,10 +6659,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -6543,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
@@ -6563,16 +6691,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>33</v>
@@ -6581,10 +6709,10 @@
         <v>67</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -6595,22 +6723,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6627,22 +6755,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6659,22 +6787,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
         <v>67</v>
       </c>
-      <c r="D7" t="n">
+      <c r="G7" t="n">
         <v>33</v>
       </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>44</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6691,10 +6819,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
@@ -6723,16 +6851,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6755,10 +6883,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -6787,10 +6915,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -6819,10 +6947,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -6851,10 +6979,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -6883,10 +7011,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -6915,10 +7043,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -6947,10 +7075,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -6979,10 +7107,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7011,10 +7139,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
+        <v>67</v>
+      </c>
+      <c r="D18" t="n">
         <v>33</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7043,10 +7171,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
+        <v>67</v>
+      </c>
+      <c r="D19" t="n">
         <v>33</v>
-      </c>
-      <c r="D19" t="n">
-        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7075,10 +7203,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7096,6 +7224,134 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="n">
+        <v>67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33</v>
+      </c>
+      <c r="D24" t="n">
+        <v>67</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7173,28 +7429,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -7217,10 +7473,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
@@ -7243,16 +7499,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
         <v>33</v>
@@ -7275,10 +7531,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>33</v>
@@ -7307,10 +7563,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
         <v>33</v>
@@ -7333,16 +7589,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
         <v>33</v>
@@ -7365,22 +7621,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7397,16 +7653,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7429,16 +7685,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7461,16 +7717,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7493,10 +7749,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7525,10 +7781,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7557,10 +7813,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7589,10 +7845,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7621,10 +7877,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7653,10 +7909,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7685,10 +7941,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7717,10 +7973,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7749,10 +8005,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7781,10 +8037,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7813,10 +8069,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7845,10 +8101,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7877,10 +8133,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7975,28 +8231,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -8019,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
         <v>67</v>
@@ -8045,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I4" t="n">
         <v>33</v>
@@ -8077,10 +8333,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
         <v>33</v>
@@ -8109,10 +8365,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="G6" t="n">
         <v>33</v>
@@ -8135,16 +8391,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G7" t="n">
         <v>33</v>
@@ -8167,22 +8423,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8199,16 +8455,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -8231,16 +8487,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -8263,16 +8519,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8295,10 +8551,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8327,10 +8583,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8359,10 +8615,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8391,10 +8647,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8423,10 +8679,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8455,10 +8711,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8487,10 +8743,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8519,10 +8775,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8551,10 +8807,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8583,10 +8839,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8615,10 +8871,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8647,10 +8903,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -8679,10 +8935,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8714,7 +8970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8777,28 +9033,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -8809,28 +9065,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -8841,10 +9097,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>89</v>
@@ -8853,16 +9109,16 @@
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -8873,10 +9129,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>89</v>
@@ -8885,16 +9141,16 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -8905,28 +9161,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -8937,22 +9193,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8969,22 +9225,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -9001,16 +9257,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9033,16 +9289,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9065,16 +9321,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9097,10 +9353,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9129,10 +9385,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9161,10 +9417,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9193,10 +9449,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9225,10 +9481,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9257,10 +9513,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9289,10 +9545,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9385,10 +9641,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9417,10 +9673,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9449,10 +9705,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9481,10 +9737,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9502,6 +9758,102 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>97</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>97</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>97</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9516,7 +9868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9579,28 +9931,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -9611,28 +9963,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -9643,10 +9995,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>89</v>
@@ -9655,16 +10007,16 @@
         <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -9675,10 +10027,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>89</v>
@@ -9687,16 +10039,16 @@
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -9707,28 +10059,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -9739,22 +10091,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -9771,22 +10123,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -9803,16 +10155,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -9835,16 +10187,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -9867,16 +10219,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -9899,10 +10251,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9931,10 +10283,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9963,10 +10315,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9995,10 +10347,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10027,10 +10379,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10059,10 +10411,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10091,10 +10443,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10187,10 +10539,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10219,10 +10571,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -10251,10 +10603,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -10283,10 +10635,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -10304,6 +10656,102 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>97</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>97</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>97</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10381,28 +10829,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10413,28 +10861,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -10445,28 +10893,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -10477,28 +10925,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -10509,28 +10957,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -10541,22 +10989,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -10573,22 +11021,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -10605,16 +11053,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10637,16 +11085,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10669,10 +11117,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -10701,10 +11149,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10733,10 +11181,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10765,10 +11213,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10797,10 +11245,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10829,10 +11277,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10861,10 +11309,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10893,10 +11341,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10925,10 +11373,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -10957,10 +11405,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10989,10 +11437,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -11021,10 +11469,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -11053,10 +11501,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -11085,10 +11533,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -11117,10 +11565,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -11149,10 +11597,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -11181,10 +11629,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -11279,28 +11727,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -12177,28 +12625,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -12209,28 +12657,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -12241,28 +12689,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -12273,28 +12721,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -12305,28 +12753,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -12337,22 +12785,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -12369,22 +12817,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -12401,16 +12849,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12433,16 +12881,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12465,10 +12913,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -12497,10 +12945,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -12529,10 +12977,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -12561,10 +13009,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -12593,10 +13041,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -12625,10 +13073,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -12657,10 +13105,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12689,10 +13137,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12721,10 +13169,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12753,10 +13201,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12785,10 +13233,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12817,10 +13265,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12849,10 +13297,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12881,10 +13329,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D24" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -12913,10 +13361,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -12945,10 +13393,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -12977,10 +13425,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -13075,28 +13523,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -13107,28 +13555,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -13139,28 +13587,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -13171,28 +13619,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -13203,28 +13651,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -13235,16 +13683,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -13267,16 +13715,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -13299,16 +13747,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -13331,16 +13779,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -13363,10 +13811,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -13395,10 +13843,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -13427,10 +13875,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -13459,10 +13907,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -13491,10 +13939,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -13523,10 +13971,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -13555,10 +14003,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -13587,10 +14035,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -13619,10 +14067,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13651,10 +14099,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13683,10 +14131,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13715,10 +14163,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -13747,10 +14195,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13779,10 +14227,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -13811,10 +14259,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -13843,10 +14291,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -13875,10 +14323,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -13973,28 +14421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -14005,28 +14453,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -14037,28 +14485,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -14069,28 +14517,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -14101,28 +14549,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -14133,16 +14581,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -14165,16 +14613,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -14197,16 +14645,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -14229,16 +14677,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -14261,10 +14709,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -14293,10 +14741,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -14325,10 +14773,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -14357,10 +14805,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -14389,10 +14837,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -14421,10 +14869,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -14453,10 +14901,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -14485,10 +14933,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -14517,10 +14965,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -14549,10 +14997,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -14581,10 +15029,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -14613,10 +15061,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -14645,10 +15093,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -14677,10 +15125,10 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -14709,10 +15157,10 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -14741,10 +15189,10 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -14773,10 +15221,10 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -14808,7 +15256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14871,28 +15319,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14903,28 +15351,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -14935,28 +15383,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -14967,28 +15415,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -14999,28 +15447,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -15031,16 +15479,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -15063,16 +15511,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -15095,16 +15543,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -15127,16 +15575,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -15159,10 +15607,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -15191,10 +15639,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -15223,10 +15671,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -15255,10 +15703,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -15287,10 +15735,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -15319,10 +15767,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -15340,358 +15788,6 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>89</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>94</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>94</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>94</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>97</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>97</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>97</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>97</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>97</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -15706,7 +15802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15769,28 +15865,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -15801,28 +15897,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -15833,28 +15929,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -15865,28 +15961,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -15897,28 +15993,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -15929,16 +16025,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -15961,16 +16057,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -15993,16 +16089,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -16025,16 +16121,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -16057,10 +16153,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -16089,10 +16185,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -16121,10 +16217,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -16153,10 +16249,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -16185,10 +16281,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -16217,10 +16313,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -16238,358 +16334,6 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>89</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" t="n">
-        <v>91</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="n">
-        <v>94</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>94</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6</v>
-      </c>
-      <c r="D22" t="n">
-        <v>94</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>97</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3</v>
-      </c>
-      <c r="D24" t="n">
-        <v>97</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3</v>
-      </c>
-      <c r="D25" t="n">
-        <v>97</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>97</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>97</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>100</v>
       </c>
     </row>
@@ -16667,28 +16411,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16711,16 +16455,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -16749,10 +16493,10 @@
         <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -16763,22 +16507,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
         <v>67</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33</v>
       </c>
       <c r="I5" t="n">
         <v>33</v>
@@ -16795,10 +16539,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>67</v>
@@ -16807,16 +16551,16 @@
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -16827,16 +16571,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -16859,16 +16603,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -16891,10 +16635,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -16923,10 +16667,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -16955,10 +16699,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -16987,10 +16731,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -17019,10 +16763,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -17051,10 +16795,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -17083,10 +16827,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
         <v>67</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -17115,10 +16859,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -17213,28 +16957,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17257,16 +17001,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -17295,10 +17039,10 @@
         <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -17309,22 +17053,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
+        <v>33</v>
+      </c>
+      <c r="H5" t="n">
         <v>67</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33</v>
       </c>
       <c r="I5" t="n">
         <v>33</v>
@@ -17341,10 +17085,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>67</v>
@@ -17353,16 +17097,16 @@
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -17373,16 +17117,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -17405,16 +17149,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -17437,10 +17181,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -17469,10 +17213,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -17501,10 +17245,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -17533,10 +17277,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -17565,10 +17309,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -17597,10 +17341,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -17629,10 +17373,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
+        <v>33</v>
+      </c>
+      <c r="D15" t="n">
         <v>67</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -17661,10 +17405,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -17759,28 +17503,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -18369,28 +18113,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -18979,28 +18723,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19525,28 +19269,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -20423,28 +20167,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20969,28 +20713,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -21547,28 +21291,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -22125,28 +21869,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22767,28 +22511,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23409,22 +23153,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23667,22 +23411,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23925,28 +23669,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -24599,28 +24343,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25273,28 +25017,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26011,28 +25755,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -26909,28 +26653,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27647,28 +27391,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28193,28 +27937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28739,28 +28483,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29221,28 +28965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29703,28 +29447,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29961,28 +29705,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -30219,28 +29963,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30669,28 +30413,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31119,28 +30863,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -31665,28 +31409,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -32403,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32949,28 +32693,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33431,28 +33175,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33913,28 +33657,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -34299,28 +34043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -34685,16 +34429,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -34703,10 +34447,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35135,16 +34879,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -35153,10 +34897,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35585,28 +35329,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36227,28 +35971,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36869,28 +36613,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37511,28 +37255,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -38249,28 +37993,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38891,22 +38635,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39309,22 +39053,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39727,28 +39471,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40305,28 +40049,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40883,28 +40627,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -41365,28 +41109,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -41847,28 +41591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42329,28 +42073,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42811,28 +42555,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43357,28 +43101,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43999,28 +43743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44545,22 +44289,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45123,22 +44867,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45701,28 +45445,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -46343,28 +46087,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -46985,28 +46729,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -47371,28 +47115,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -47757,28 +47501,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48271,28 +48015,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48785,28 +48529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -49299,28 +49043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49941,28 +49685,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -50455,28 +50199,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -50905,28 +50649,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -51355,10 +51099,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -51367,10 +51111,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51517,10 +51261,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -51529,10 +51273,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51679,16 +51423,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -51841,16 +51585,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -52003,16 +51747,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -52165,16 +51909,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -52327,28 +52071,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -52905,28 +52649,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -53547,28 +53291,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -54125,16 +53869,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54143,10 +53887,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -54543,16 +54287,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54561,10 +54305,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -54961,16 +54705,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -55187,16 +54931,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -55805,22 +55549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
